--- a/documentacao/Planejamento_semanal-Grupo-01.xlsx
+++ b/documentacao/Planejamento_semanal-Grupo-01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicolas\Documents\github\projeto-pi\documentacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE676E22-9569-4C44-88B5-5D08215DB0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B680A439-FD48-4F6C-8CCC-03060FF2FB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0F7AF7EA-62D9-4957-B51D-C4337E278714}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="20376" windowHeight="12096" xr2:uid="{0F7AF7EA-62D9-4957-B51D-C4337E278714}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="50">
   <si>
     <t>Requisito</t>
   </si>
@@ -178,9 +178,6 @@
   </si>
   <si>
     <t>Semana 3 (03/10 - 10/10)</t>
-  </si>
-  <si>
-    <t>Pendente</t>
   </si>
   <si>
     <t>Semana 3 (00/10 - 00/10)</t>
@@ -193,7 +190,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,7 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -489,6 +486,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,24 +826,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96E765B-8C51-4459-9F06-E0F4555F8357}">
   <dimension ref="B2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" zoomScale="96" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.44140625" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>40</v>
       </c>
@@ -851,7 +851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="23.25">
+    <row r="3" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B3" s="33" t="s">
         <v>11</v>
       </c>
@@ -864,7 +864,7 @@
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
     </row>
-    <row r="4" spans="2:10" ht="15">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>12</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="2:10" ht="15">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
@@ -905,7 +905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
@@ -931,7 +931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>19</v>
       </c>
@@ -957,7 +957,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="22" t="s">
         <v>17</v>
       </c>
@@ -983,7 +983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>20</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="G11" s="28"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="7" t="s">
         <v>22</v>
       </c>
@@ -1067,7 +1067,7 @@
       <c r="G12" s="28"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1083,7 +1083,7 @@
       <c r="G13" s="28"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="26" t="s">
         <v>23</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="35" t="s">
         <v>41</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="23.25">
+    <row r="18" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B18" s="33" t="s">
         <v>11</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="2:10" ht="15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>46</v>
       </c>
@@ -1138,7 +1138,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="2:10" ht="15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>29</v>
       </c>
@@ -1184,13 +1184,13 @@
         <v>45575</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>30</v>
       </c>
@@ -1210,13 +1210,13 @@
         <v>45575</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J22" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="22" t="s">
         <v>17</v>
       </c>
@@ -1236,13 +1236,13 @@
         <v>45575</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J23" s="21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>31</v>
       </c>
@@ -1265,10 +1265,10 @@
         <v>8</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>32</v>
       </c>
@@ -1284,7 +1284,7 @@
       <c r="G25" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>45575</v>
       </c>
       <c r="I25" s="20" t="s">
@@ -1294,43 +1294,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="7"/>
       <c r="C26" s="5"/>
       <c r="D26" s="18"/>
       <c r="E26" s="30"/>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="36">
+      <c r="H26" s="39">
         <v>45575</v>
       </c>
-      <c r="I26" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="I26" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="7"/>
       <c r="C27" s="5"/>
       <c r="D27" s="18"/>
       <c r="E27" s="30"/>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="38">
         <v>45575</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="7"/>
       <c r="C28" s="5"/>
       <c r="D28" s="18"/>
@@ -1338,7 +1338,7 @@
       <c r="G28" s="28"/>
       <c r="J28" s="10"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="26"/>
       <c r="C29" s="5"/>
       <c r="D29" s="27"/>
@@ -1349,7 +1349,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="12"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="35" t="s">
         <v>44</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="23.25">
+    <row r="36" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B36" s="33" t="s">
         <v>11</v>
       </c>
@@ -1373,22 +1373,22 @@
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="2:10" ht="15">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="14"/>
       <c r="F37" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="14"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="2:10" ht="15">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="7"/>
       <c r="C39" s="5"/>
       <c r="D39" s="18"/>
@@ -1424,7 +1424,7 @@
       <c r="I39" s="18"/>
       <c r="J39" s="21"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="7"/>
       <c r="C40" s="5"/>
       <c r="D40" s="18"/>
@@ -1434,7 +1434,7 @@
       <c r="I40" s="18"/>
       <c r="J40" s="21"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="22"/>
       <c r="C41" s="5"/>
       <c r="D41" s="24"/>
@@ -1444,7 +1444,7 @@
       <c r="I41" s="18"/>
       <c r="J41" s="21"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="7"/>
       <c r="C42" s="5"/>
       <c r="D42" s="18"/>
@@ -1454,7 +1454,7 @@
       <c r="I42" s="15"/>
       <c r="J42" s="21"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="7"/>
       <c r="C43" s="5"/>
       <c r="D43" s="18"/>
@@ -1464,7 +1464,7 @@
       <c r="I43" s="20"/>
       <c r="J43" s="21"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="7"/>
       <c r="C44" s="5"/>
       <c r="D44" s="18"/>
@@ -1474,7 +1474,7 @@
       <c r="I44" s="15"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="5"/>
       <c r="D45" s="18"/>
@@ -1484,7 +1484,7 @@
       <c r="I45" s="15"/>
       <c r="J45" s="10"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="5"/>
       <c r="D46" s="18"/>
@@ -1492,7 +1492,7 @@
       <c r="G46" s="28"/>
       <c r="J46" s="10"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="26"/>
       <c r="C47" s="5"/>
       <c r="D47" s="27"/>
